--- a/KIAR_FATAH_TID.xlsx
+++ b/KIAR_FATAH_TID.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,6 +410,17 @@
       <c r="A3" s="1">
         <v>43631</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KIAR_FATAH_TID.xlsx
+++ b/KIAR_FATAH_TID.xlsx
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,6 +422,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43633</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KIAR_FATAH_TID.xlsx
+++ b/KIAR_FATAH_TID.xlsx
@@ -14,6 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$2:$B$6</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -83,6 +89,950 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF14-1D4B-8D56-23B652F76EF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="756686736"/>
+        <c:axId val="756688432"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="756686736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756688432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="756688432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756686736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4960130C-EFD0-1B43-A456-C585EDE2CB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,7 +1380,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43634</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KIAR_FATAH_TID.xlsx
+++ b/KIAR_FATAH_TID.xlsx
@@ -15,10 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$10</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -226,10 +224,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43630</c:v>
                 </c:pt>
@@ -247,16 +245,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -274,6 +281,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A2:B7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1396,6 +1412,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43639</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
